--- a/data_migration/exports/productmeasure.xlsx
+++ b/data_migration/exports/productmeasure.xlsx
@@ -476,12 +476,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2022-09-07 21:34:11.792562-04:00</t>
+          <t>2022-09-07 21:34:11.792562</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2022-09-07 21:34:11.792562-04:00</t>
+          <t>2022-09-07 21:34:11.792562</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -502,12 +502,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2022-09-07 21:34:16.476276-04:00</t>
+          <t>2022-09-07 21:34:16.476276</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2022-09-07 21:34:16.476276-04:00</t>
+          <t>2022-09-07 21:34:16.476276</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -528,12 +528,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2022-09-08 12:17:52.208852-04:00</t>
+          <t>2022-09-08 12:17:52.208852</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2022-09-08 12:17:52.208852-04:00</t>
+          <t>2022-09-08 12:17:52.208852</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -554,12 +554,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2022-09-08 12:17:59.089845-04:00</t>
+          <t>2022-09-08 12:17:59.089845</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2022-09-08 12:17:59.089845-04:00</t>
+          <t>2022-09-08 12:17:59.089845</t>
         </is>
       </c>
       <c r="E5" t="n">
